--- a/data/Exp_data/Metabolomics.xlsx
+++ b/data/Exp_data/Metabolomics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LbPtEPS\data\Exp_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9042370D-ED3E-49F4-9A7B-DABCA31DC452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E69BD7D-390A-4877-97BE-B7DD226CEE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,10 +231,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,8 +267,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +553,7 @@
   <dimension ref="A1:AE97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,11 +657,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>16867.599999999999</v>
-      </c>
-      <c r="C2">
-        <v>97736.400000000009</v>
+      <c r="B2" s="1">
+        <v>29693.84</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1950.72</v>
       </c>
       <c r="D2">
         <v>792.88</v>
@@ -744,11 +752,11 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>13531.2</v>
-      </c>
-      <c r="C3">
-        <v>98511.6</v>
+      <c r="B3" s="1">
+        <v>28698.240000000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2169.84</v>
       </c>
       <c r="D3">
         <v>795.32799999999997</v>
@@ -839,11 +847,11 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>13432</v>
-      </c>
-      <c r="C4">
-        <v>97775.599999999991</v>
+      <c r="B4" s="1">
+        <v>31086.239999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2346.56</v>
       </c>
       <c r="D4">
         <v>792.91200000000003</v>
@@ -9767,5 +9775,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>